--- a/formidable-client/assets/opendatakit.collect2/form-files/shared_table_a/shared_table_a.xlsx
+++ b/formidable-client/assets/opendatakit.collect2/form-files/shared_table_a/shared_table_a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>type</t>
   </si>
@@ -133,10 +133,13 @@
     <t>form_id</t>
   </si>
   <si>
+    <t>refrigerators_init</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
     <t>refrigerators</t>
-  </si>
-  <si>
-    <t>table_id</t>
   </si>
   <si>
     <t>form_version</t>
@@ -550,12 +553,12 @@
         <v>40</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="B4">
         <v>1</v>
@@ -563,10 +566,10 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" s="1" r="B5">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
